--- a/Examples/AHP Ratings Lunch/LunchModel_Ratings_Table_empty.xlsx
+++ b/Examples/AHP Ratings Lunch/LunchModel_Ratings_Table_empty.xlsx
@@ -634,8 +634,9 @@
           <t>Above Average</t>
         </is>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>1</v>
+      <c r="B4" s="12">
+        <f>1/C3</f>
+        <v/>
       </c>
       <c r="C4" s="7" t="n">
         <v>1</v>
@@ -666,11 +667,13 @@
           <t>Average</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>1</v>
+      <c r="B5" s="12">
+        <f>1/D3</f>
+        <v/>
+      </c>
+      <c r="C5" s="12">
+        <f>1/D4</f>
+        <v/>
       </c>
       <c r="D5" s="7" t="n">
         <v>1</v>
@@ -698,14 +701,17 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="B6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="n">
-        <v>1</v>
+      <c r="B6" s="12">
+        <f>1/E3</f>
+        <v/>
+      </c>
+      <c r="C6" s="12">
+        <f>1/E4</f>
+        <v/>
+      </c>
+      <c r="D6" s="12">
+        <f>1/E5</f>
+        <v/>
       </c>
       <c r="E6" s="7" t="n">
         <v>1</v>
@@ -821,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>0.5</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>1</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="E12" s="9" t="n"/>
       <c r="F12" s="10">
@@ -846,14 +852,15 @@
           <t>8 to 10 dollars</t>
         </is>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>2</v>
+      <c r="B13" s="12">
+        <f>1/C12</f>
+        <v/>
       </c>
       <c r="C13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>2</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="E13" s="9" t="n"/>
       <c r="F13" s="10">
@@ -875,11 +882,13 @@
           <t>more than 10 dollars</t>
         </is>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>0.5</v>
+      <c r="B14" s="12">
+        <f>1/D12</f>
+        <v/>
+      </c>
+      <c r="C14" s="12">
+        <f>1/D13</f>
+        <v/>
       </c>
       <c r="D14" s="7" t="n">
         <v>1</v>
@@ -1025,8 +1034,9 @@
           <t>Above Average</t>
         </is>
       </c>
-      <c r="B21" s="12" t="n">
-        <v>1</v>
+      <c r="B21" s="12">
+        <f>1/C20</f>
+        <v/>
       </c>
       <c r="C21" s="7" t="n">
         <v>1</v>
@@ -1057,11 +1067,13 @@
           <t>Average</t>
         </is>
       </c>
-      <c r="B22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>1</v>
+      <c r="B22" s="12">
+        <f>1/D20</f>
+        <v/>
+      </c>
+      <c r="C22" s="12">
+        <f>1/D21</f>
+        <v/>
       </c>
       <c r="D22" s="7" t="n">
         <v>1</v>
@@ -1089,14 +1101,17 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="B23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="n">
-        <v>1</v>
+      <c r="B23" s="12">
+        <f>1/E20</f>
+        <v/>
+      </c>
+      <c r="C23" s="12">
+        <f>1/E21</f>
+        <v/>
+      </c>
+      <c r="D23" s="12">
+        <f>1/E22</f>
+        <v/>
       </c>
       <c r="E23" s="7" t="n">
         <v>1</v>
@@ -1237,8 +1252,9 @@
           <t>10 minutes</t>
         </is>
       </c>
-      <c r="B30" s="12" t="n">
-        <v>1</v>
+      <c r="B30" s="12">
+        <f>1/C29</f>
+        <v/>
       </c>
       <c r="C30" s="7" t="n">
         <v>1</v>
@@ -1266,11 +1282,13 @@
           <t>15 minutes</t>
         </is>
       </c>
-      <c r="B31" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="n">
-        <v>1</v>
+      <c r="B31" s="12">
+        <f>1/D29</f>
+        <v/>
+      </c>
+      <c r="C31" s="12">
+        <f>1/D30</f>
+        <v/>
       </c>
       <c r="D31" s="7" t="n">
         <v>1</v>
@@ -1563,7 +1581,79 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="48">
+  <dataValidations count="72">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>
